--- a/UploadedFiles/Updated Scorecard Tables.xlsx
+++ b/UploadedFiles/Updated Scorecard Tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5952" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5952" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Perspectives" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Tasks FY16" sheetId="8" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="630">
   <si>
     <t>PID</t>
   </si>
@@ -1724,9 +1724,6 @@
     <t>Continue discussion with potential cooperative merger partners &amp; independent retailers</t>
   </si>
   <si>
-    <t>Devin, Willie, Kent, MKC Way</t>
-  </si>
-  <si>
     <t>Explore opportunities for a cattle risk management offer</t>
   </si>
   <si>
@@ -1736,9 +1733,6 @@
     <t>Phase 2 (website replacement) Enhance grower portal</t>
   </si>
   <si>
-    <t>Vice Presidents and Division Managers to overview outcomes of strategic planning twice per year via performance plans</t>
-  </si>
-  <si>
     <t>Utilize other communication methods to carry message</t>
   </si>
   <si>
@@ -1832,15 +1826,6 @@
     <t>Prepare for agronomy in Canton</t>
   </si>
   <si>
-    <t>Erik, Kent</t>
-  </si>
-  <si>
-    <t>Update large project list in JUL</t>
-  </si>
-  <si>
-    <t>Update large project list in DEC</t>
-  </si>
-  <si>
     <t>Send email alert to check progress in JUL</t>
   </si>
   <si>
@@ -1856,27 +1841,15 @@
     <t>Define projects for FY 2018 and timeline them</t>
   </si>
   <si>
-    <t>Finalize energy contracts</t>
-  </si>
-  <si>
     <t>Schedule formal training for new contracts</t>
   </si>
   <si>
     <t>Evaluate effectiveness of all new contracts</t>
   </si>
   <si>
-    <t>Make a list of all current and new offerings to producers</t>
-  </si>
-  <si>
-    <t>Send out a survey of qualifing questions to targeted group of producers</t>
-  </si>
-  <si>
     <t>Set up 3 LRP/PRF meetings (choose locations)</t>
   </si>
   <si>
-    <t xml:space="preserve">Formalize offerings </t>
-  </si>
-  <si>
     <t>Clarify marketing and sales processes for new livestock risk management offerings</t>
   </si>
   <si>
@@ -1961,9 +1934,6 @@
     <t>Schedule meetings to evaluate findings based on engagement metrics (share of wallet-60, meetings-20, surveys-20)</t>
   </si>
   <si>
-    <t>Determine how to generate end of work flow random selection surveys</t>
-  </si>
-  <si>
     <t>Finalize fixed survey calendar and all survey questions</t>
   </si>
   <si>
@@ -1976,9 +1946,6 @@
     <t>Create development plans based on generational sales training</t>
   </si>
   <si>
-    <t>Communicate the strategic plan to employee group &amp; incorporate into their incentive plan</t>
-  </si>
-  <si>
     <t>Prepare action plans for fleet ownership and lease/hire option</t>
   </si>
   <si>
@@ -1991,15 +1958,6 @@
     <t>Design IDPs for high potential employees</t>
   </si>
   <si>
-    <t>Schedule review sessions</t>
-  </si>
-  <si>
-    <t>Create a ride along calendar</t>
-  </si>
-  <si>
-    <t>Discuss effectiveness of CRM internal communication tool</t>
-  </si>
-  <si>
     <t>Create development plan template</t>
   </si>
   <si>
@@ -2010,9 +1968,6 @@
   </si>
   <si>
     <t>Send requirements to multiple companies for the software piece &amp; choose one with benchmarking capability</t>
-  </si>
-  <si>
-    <t>Review financial data with Sr. LMs quarterly</t>
   </si>
   <si>
     <t>Have 1st set of IDPs completed using incentive metrics</t>
@@ -2201,9 +2156,6 @@
     </r>
   </si>
   <si>
-    <t>Create EPP only sales volumn report in CRM or internally</t>
-  </si>
-  <si>
     <t>Conduct feasibility study for NH3 and agronomy</t>
   </si>
   <si>
@@ -2237,16 +2189,292 @@
     <t>Create a list of areas of enhancement &amp; prioritize which ones will need reviewed annually</t>
   </si>
   <si>
-    <t>To be filled in APR</t>
-  </si>
-  <si>
-    <t>Pilot with seed delivery survey</t>
+    <t xml:space="preserve">7 Meetings were conducted in Bennington, Manhattan, Onaga, Lindsborg, Groveland, Walton, and Haven.  Abilene, Benton &amp; Rice Co. are on the books for after spring planting.  20-25 growers on average in attendance.  Requesting CRM survey to launch afterward to collect and track customer feedback. </t>
+  </si>
+  <si>
+    <t>Pilot with seed delivery survey - test SMS and email capabilities</t>
+  </si>
+  <si>
+    <t>Determine how to generate end of work flow random selection surveys-what are trigger points in CRM?</t>
+  </si>
+  <si>
+    <t>Define company standards</t>
+  </si>
+  <si>
+    <t>Create standards for each location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 merger partners have been identified, contacts are current and intelligence is gathered on a bi-monthly basis.  There are 7 locations indentified as  "go see" status and 10 independent retailers on the radar.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As of 4.11, this report was submitted for scheduling.  </t>
+  </si>
+  <si>
+    <t>Application work flow is set for completion on 6.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Face to face surveys are ready to launch via CRM (Kent is piloting now 4.11) but we are waiting for a better time to set up meetings with producers.  </t>
+  </si>
+  <si>
+    <t>The large project list is set for review quarterly to ensure updates and changes are documented and ready for captial budget review.  The last meeting was held on MAR 9, 2016 after the budget meeting.</t>
+  </si>
+  <si>
+    <t>CRM has capability to launch surveys after a completed workflow via email or text link.  Trigger points are being determined.  Piloting with seed delivery survey in May.</t>
+  </si>
+  <si>
+    <t>Script is complete and video is started.  Set for completion in May and training sessions will follow.</t>
+  </si>
+  <si>
+    <t>Make a list of all current offerings to producers</t>
+  </si>
+  <si>
+    <t>Send out a survey of qualifying questions to targeted group of producers (intern project)</t>
+  </si>
+  <si>
+    <t>Create EPP only sales volume report in CRM or internally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPP 2017 planning is underway.  Still determining if CRM will be able to generate a sales volume report to measure success; due in AUG.  Satisfaction surveys are ready to launch.  </t>
+  </si>
+  <si>
+    <t>New website content is reflective of current precision ag services.</t>
+  </si>
+  <si>
+    <t>Dave S., Troy</t>
+  </si>
+  <si>
+    <t>Willie, Kent, Devin, Troy</t>
+  </si>
+  <si>
+    <t>Troy, Devin, Dave S.</t>
+  </si>
+  <si>
+    <t>Devin, Troy, Kent, MKC Way</t>
+  </si>
+  <si>
+    <t>Willie, Kent, Dave S., Dave Sell, Troy</t>
+  </si>
+  <si>
+    <t>Scotty, Dave S., Ted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devin, Troy </t>
+  </si>
+  <si>
+    <t>Dave S., Troy, Devin, Erik</t>
+  </si>
+  <si>
+    <t>Nichole, Willie, Devin, Troy</t>
+  </si>
+  <si>
+    <t>Craig, Dave S., Nichole, Troy</t>
+  </si>
+  <si>
+    <t>Craig, Dave S., GPPA, Troy</t>
+  </si>
+  <si>
+    <t>Craig, Troy</t>
+  </si>
+  <si>
+    <t>CI Committee</t>
+  </si>
+  <si>
+    <t>Erik, Kent, Troy</t>
+  </si>
+  <si>
+    <t>Vice Presidents and Division Managers to overview outcomes of strategic planning twice per year via performance plans &amp; incorporate into incentive plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safety Committee to report to MKC Way Committee top safety tasks for new FY.  </t>
+  </si>
+  <si>
+    <t>4 Keys Fanatic Card is under development.</t>
+  </si>
+  <si>
+    <t>CI Committee to report to MKC Way Committee top community stewardship efforts for new FY.</t>
+  </si>
+  <si>
+    <t>Company budgets are approved and location standards are still being determined; adjusted date to accommodate focusing on the audit first.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81% participation rate for 2016 ES.  Awaiting reports with results to determine new target.  </t>
+  </si>
+  <si>
+    <t>Advertising efforts are underway; specifically in schools and retirement communities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Focus group meetings are scheduled for May. Awaiting results from ES. </t>
+  </si>
+  <si>
+    <t>Panel reviews are scheduled to occur quarterly to review list of HPEs and the metrics defined for each one.</t>
+  </si>
+  <si>
+    <t>Small training sessions on how to conduct IDPs occurred in MAR.  Management development checklists were introduced this FY.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigating feasibility of implementing Asst. Grain Mgr. to increase pool of grain employees.  </t>
+  </si>
+  <si>
+    <t>The company has been identified and dates/locations will be determined in SEPT.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly activities can be viewed on the Wellness Blog.  </t>
+  </si>
+  <si>
+    <t>Educational opportunities are built into the monthly activities.</t>
+  </si>
+  <si>
+    <t>A wellness day off has been introduced as a new reward for those who fully participate.</t>
+  </si>
+  <si>
+    <t>SOP is complete and measurements to determine effectiveness will be prepared after more data is collected.</t>
+  </si>
+  <si>
+    <t>Education efforts are underway.  Continuing to prioritize projects based on endorsement and approval.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zoning and initial IRB meetings are complete.  </t>
+  </si>
+  <si>
+    <t>Communications plan is current and ready to launch upon approval.</t>
+  </si>
+  <si>
+    <t>HR model is complete.</t>
+  </si>
+  <si>
+    <t>Direct ship and Contract dashboards are complete.  Scorecard is complete.  Dispatch will be complete this week (4/18-4/22)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communicate the strategic plan to employee group </t>
+  </si>
+  <si>
+    <t>Complete planning for EPP 2017</t>
+  </si>
+  <si>
+    <t>Request to push due date to 8/1.  Actions are in progress and on going as of 5/1.</t>
+  </si>
+  <si>
+    <t>Forecasting protocol will be rolled out in July.  GP will be used for tracking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accounts have been identified and a checkpoint on progress is set for 4.30.  Checkpoint data has been reviewed with Dave Spears and is currently being entered into CRM for tracking.  </t>
+  </si>
+  <si>
+    <t>Finalize energy contract</t>
+  </si>
+  <si>
+    <t>Build out remainder of sales training calendar</t>
+  </si>
+  <si>
+    <t>Communicate to FLM+ the inclusion of generational sales training into curriculum</t>
+  </si>
+  <si>
+    <t>Consider adding a coaching and mentoring action item during next retreat</t>
+  </si>
+  <si>
+    <t>This is connected to Parker's sales training series.  Development plans will be created in the JUN session. More thought has been given to this action and team is reccommending to move it to Employee Development  in August.</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>Troy is arranging Champion Team meeting to discuss benchmarking intent moving forward.  Tasks may change; pushed to MAY. Decision was made in JUN to split this action into benchmarking and trials.  Both of which will be reworked in August retreat.</t>
+  </si>
+  <si>
+    <t>Still awaiting licensing.  Will adjust prospective services as technology evolves to be ready to market when prompted to do so. Timeline on marketing efforts moved to AUG for now.</t>
+  </si>
+  <si>
+    <t>RFPs are currently being reviewed against requirements. Software has been chosen and the next steps include implementation, training, and exploring additional functionality.</t>
+  </si>
+  <si>
+    <t>Updates on Energy contracts are set for review in staff meeting, May 26.  No changes will be made to fertilizer at this time.</t>
+  </si>
+  <si>
+    <t>Checkpoint to collect talking points for strategic retreat</t>
+  </si>
+  <si>
+    <t>A list has been made explaining current offerings.  Will utilize intern for continued research and development including customer surveys and Board Member input.  Formal secondary offers won't be marketed until the future picture for feed ops is determined.</t>
+  </si>
+  <si>
+    <t>To be filled in AUG</t>
+  </si>
+  <si>
+    <t>Investigation is underway to determine feasibility for standardizing all training efforts and documentation called MKC University.  Development of the seed portion is underway and will launch in 2016 seed season.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piloting is scheduled in May to internal customers.  LOL will roadmap action items for review in JUN. Phase 2 tasks are on pace as of JUN 13.   </t>
+  </si>
+  <si>
+    <t>Tasks and timelines are pending Hillsboro merger discussion.  Should be able to draft plans at strategic retreat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Kent and Jon visited a similar facility in Leeds, ND in May.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigation is underway.  Visit with Star Seed is complete. </t>
+  </si>
+  <si>
+    <t>Meeting with Monsanto is planned for June. Winfield meeting will occur in July.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Article planned for next Connections Magazine on topic.  </t>
+  </si>
+  <si>
+    <t>Project is still live although immediate action items will be evaluated in AUG retreat.</t>
+  </si>
+  <si>
+    <t>To be investigated further in AUG</t>
+  </si>
+  <si>
+    <t>Priority projects have been identified for the new FY.  BuyPoint is nearing roll out.  A review of processes and procedures will be presented by the Margin Committee in a June staff meeting.</t>
+  </si>
+  <si>
+    <t>feasiblity study is complete.  Continue to monitor, when conditions change we will re-evaluate.</t>
+  </si>
+  <si>
+    <t>Deliver training in July Monthly Manager Meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location/pod specific financial goals have been loaded into pivot tables.  Will review with Sr. LMs first then present in July Monthly Manager Meeting.  Training will include how to navigate the pivot tables and how they tie back to the metrics in the new incentive plan.  </t>
+  </si>
+  <si>
+    <t>Provide Sr. LMs with location/pod financial goals</t>
+  </si>
+  <si>
+    <t>Review pivot tables with Sr. Location Managers and explain connectivity to metrics in new incentive plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New FY performance plans should be completed by end of JUNE pending completion of location/pod finanicial goals and explanation of incentive metrics.  The second pass/reviews should be complete by NOV and used as a time to check progress toward accomplishing objectives outlined in 1st IDP. Incentive scores are affected by IDP performance for all employees.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIP Planning is underway.  Considerations for smaller group meetings are being investigated to communicate the new FY plan in March instead of combining into one long Monthly Manager Meeting.  Text blasting cabability is also being investigated and could be used as a vehicle to push out successes and celebrations. </t>
+  </si>
+  <si>
+    <t>Checkpoint conducted prior to July 1 deadline.  No drastic changes to report with exception of one site.  Next checkpoint scheduled for DEC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two 2017 wheat (bridge loans) were captured from the pilot program that will roll over into the new July loans.  Program details have been submitted to CFA and applications are being worked on now.  Producer interviews and new CFA goals are scheduled for completion in AUG.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grain will go first with agronomy to follow.  Precision ag tools will need to drive sales efforts.  No confirmed plans for energy as of yet.  Market research is currently being conducted on the risk management competitive set. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review large project list in APR and JUL </t>
+  </si>
+  <si>
+    <t>Review large project list in OCT and JAN</t>
+  </si>
+  <si>
+    <t>Bunker cost of operation analysis is underway.  Need to include steel and cement storage numbers.  On pace to review with Danny prior to AUG retreat.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2301,6 +2529,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2408,7 +2637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2471,6 +2700,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2828,7 +3063,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -3019,8 +3254,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:I169" totalsRowShown="0">
-  <autoFilter ref="A1:I169"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:I168" totalsRowShown="0">
+  <autoFilter ref="A1:I168"/>
   <tableColumns count="9">
     <tableColumn id="1" name="PID" dataDxfId="16"/>
     <tableColumn id="2" name="INID" dataDxfId="15"/>
@@ -3168,6 +3403,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3203,6 +3455,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3386,7 +3655,7 @@
       </c>
       <c r="C2" s="6">
         <f>SUM(Initiatives!D2:D3) / 4</f>
-        <v>8.3333333333333339</v>
+        <v>30.833333333333336</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3398,7 +3667,7 @@
       </c>
       <c r="C3" s="6">
         <f>SUM(Initiatives!D4:D7) / 4</f>
-        <v>34.642857142857139</v>
+        <v>63.928571428571431</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3410,7 +3679,7 @@
       </c>
       <c r="C4" s="6">
         <f>SUM(Initiatives!D8:D12) / 5</f>
-        <v>31.5</v>
+        <v>54.916666666666664</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3422,7 +3691,7 @@
       </c>
       <c r="C5" s="6">
         <f>SUM(Initiatives!D13:D16) / 4</f>
-        <v>13.5</v>
+        <v>47.375</v>
       </c>
     </row>
   </sheetData>
@@ -3458,8 +3727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3497,7 +3766,7 @@
       </c>
       <c r="D2" s="12">
         <f>SUM(Actions!H2:H4) / 3</f>
-        <v>33.333333333333336</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="6"/>
@@ -3514,7 +3783,7 @@
       </c>
       <c r="D3" s="12">
         <f>SUM(Actions!H5:H7) / 3</f>
-        <v>0</v>
+        <v>56.666666666666664</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="6"/>
@@ -3531,7 +3800,7 @@
       </c>
       <c r="D4" s="12">
         <f>SUM(Actions!H8:H11) / 4</f>
-        <v>35</v>
+        <v>63.75</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="6"/>
@@ -3548,7 +3817,7 @@
       </c>
       <c r="D5" s="12">
         <f>SUM(Actions!H12:H18) / 7</f>
-        <v>23.571428571428573</v>
+        <v>50.714285714285715</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="6"/>
@@ -3565,7 +3834,7 @@
       </c>
       <c r="D6" s="12">
         <f>SUM(Actions!H19:H21) / 3</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="6"/>
@@ -3582,7 +3851,7 @@
       </c>
       <c r="D7" s="12">
         <f>SUM(Actions!H22:H25) / 4</f>
-        <v>60</v>
+        <v>91.25</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="6"/>
@@ -3595,11 +3864,11 @@
         <v>1</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>472</v>
+        <v>588</v>
       </c>
       <c r="D8" s="12">
         <f>SUM(Actions!H26:H27) / 2</f>
-        <v>0</v>
+        <v>67.5</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="6"/>
@@ -3633,7 +3902,7 @@
       </c>
       <c r="D10" s="12">
         <f>SUM(Actions!H32:H35) / 4</f>
-        <v>42.5</v>
+        <v>58.75</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="6"/>
@@ -3650,7 +3919,7 @@
       </c>
       <c r="D11" s="12">
         <f>SUM(Actions!H36:H38) / 3</f>
-        <v>50</v>
+        <v>83.333333333333329</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="6"/>
@@ -3684,7 +3953,7 @@
       </c>
       <c r="D13" s="12">
         <f>SUM(Actions!H43:H44) / 2</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="6"/>
@@ -3701,7 +3970,7 @@
       </c>
       <c r="D14" s="12">
         <f>SUM(Actions!H45:H48) / 4</f>
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="6"/>
@@ -3735,7 +4004,7 @@
       </c>
       <c r="D16" s="12">
         <f>SUM(Actions!H51:H55)/5</f>
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="6"/>
@@ -3748,7 +4017,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="D17" s="12">
         <f>SUM(Actions!H56:H59)/4</f>
@@ -3797,20 +4066,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="117.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" customWidth="1"/>
     <col min="7" max="7" width="12.44140625" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="44.21875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="70.5546875" style="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -3838,11 +4107,11 @@
       <c r="H1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="41" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3868,9 +4137,11 @@
         <f>SUM(Tasks!I2:I3) * 10</f>
         <v>100</v>
       </c>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I2" s="40" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3894,11 +4165,13 @@
       </c>
       <c r="H3" s="6">
         <f>SUM(Tasks!I4:I5) * 10</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="14"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3922,11 +4195,13 @@
       </c>
       <c r="H4" s="6">
         <f>SUM(Tasks!I6:I7) * 10</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3950,11 +4225,13 @@
       </c>
       <c r="H5" s="6">
         <f>SUM(Tasks!I8:I10) * 10</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="I5" s="40" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3978,11 +4255,13 @@
       </c>
       <c r="H6" s="6">
         <f>SUM(Tasks!I11:I14) * 10</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3993,7 +4272,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E7" t="s">
         <v>116</v>
@@ -4006,11 +4285,13 @@
       </c>
       <c r="H7" s="6">
         <f>SUM(Tasks!I15:I16) * 10</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -4027,18 +4308,20 @@
         <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>553</v>
       </c>
       <c r="G8" s="5">
         <v>42614</v>
       </c>
       <c r="H8" s="6">
         <f>SUM(Tasks!I17:I19) * 10</f>
-        <v>30</v>
-      </c>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -4049,7 +4332,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="E9" t="s">
         <v>55</v>
@@ -4064,7 +4347,9 @@
         <f>SUM(Tasks!I20:I23) * 10</f>
         <v>25</v>
       </c>
-      <c r="I9" s="14"/>
+      <c r="I9" s="40" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -4090,11 +4375,13 @@
       </c>
       <c r="H10" s="6">
         <f>SUM(Tasks!I24:I27) * 10</f>
-        <v>50</v>
-      </c>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -4111,16 +4398,18 @@
         <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>554</v>
       </c>
       <c r="G11" s="5">
         <v>42614</v>
       </c>
       <c r="H11" s="6">
         <f>SUM(Tasks!I28:I30) * 10</f>
-        <v>35</v>
-      </c>
-      <c r="I11" s="14"/>
+        <v>65</v>
+      </c>
+      <c r="I11" s="40" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -4138,16 +4427,21 @@
       <c r="E12" t="s">
         <v>63</v>
       </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
       <c r="G12" s="21">
         <v>42705</v>
       </c>
       <c r="H12" s="6">
         <f>SUM(Tasks!I28:I30) * 10</f>
-        <v>35</v>
-      </c>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="I12" s="40" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -4161,21 +4455,23 @@
         <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>555</v>
       </c>
       <c r="G13" s="5">
         <v>42705</v>
       </c>
       <c r="H13" s="6">
         <f>SUM(Tasks!I33:I37) * 10</f>
-        <v>80</v>
-      </c>
-      <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="I13" s="40" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -4192,18 +4488,20 @@
         <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>388</v>
+        <v>556</v>
       </c>
       <c r="G14" s="5">
         <v>42767</v>
       </c>
       <c r="H14" s="6">
         <f>SUM(Tasks!I38:I41) * 10</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -4227,11 +4525,13 @@
       </c>
       <c r="H15" s="6">
         <f>SUM(Tasks!I42:I45) * 10</f>
-        <v>50</v>
-      </c>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="I15" s="40" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -4248,18 +4548,20 @@
         <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>557</v>
       </c>
       <c r="G16" s="21">
         <v>42522</v>
       </c>
       <c r="H16" s="6">
         <f>SUM(Tasks!I46:I48) * 10</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="I16" s="40" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -4270,21 +4572,26 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
+        <v>388</v>
+      </c>
+      <c r="E17" t="s">
         <v>389</v>
       </c>
-      <c r="E17" t="s">
-        <v>390</v>
+      <c r="F17" t="s">
+        <v>558</v>
       </c>
       <c r="G17" s="5">
-        <v>42491</v>
+        <v>42583</v>
       </c>
       <c r="H17" s="6">
         <f>SUM(Tasks!I49:I53) * 10</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I17" s="40" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -4295,21 +4602,26 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E18" t="s">
         <v>63</v>
       </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
       <c r="G18" s="5">
         <v>42767</v>
       </c>
       <c r="H18" s="6">
         <f>SUM(Tasks!I54:I57) * 10</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="14"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="I18" s="40" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -4320,24 +4632,26 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s">
-        <v>79</v>
+        <v>559</v>
       </c>
       <c r="G19" s="21">
         <v>42767</v>
       </c>
       <c r="H19" s="6">
         <f>SUM(Tasks!I58:I61) * 10</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="I19" s="40" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -4351,21 +4665,23 @@
         <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>598</v>
       </c>
       <c r="F20" t="s">
-        <v>82</v>
+        <v>560</v>
       </c>
       <c r="G20" s="21">
         <v>42583</v>
       </c>
       <c r="H20" s="6">
         <f>SUM(Tasks!I62:I64) * 10</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="I20" s="40" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -4382,7 +4698,7 @@
         <v>52</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>561</v>
       </c>
       <c r="G21" s="5">
         <v>42491</v>
@@ -4391,7 +4707,9 @@
         <f>SUM(Tasks!I65:I69) * 10</f>
         <v>60</v>
       </c>
-      <c r="I21" s="14"/>
+      <c r="I21" s="40" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
@@ -4410,18 +4728,20 @@
         <v>137</v>
       </c>
       <c r="F22" t="s">
-        <v>138</v>
+        <v>562</v>
       </c>
       <c r="G22" s="5">
         <v>42430</v>
       </c>
       <c r="H22" s="6">
         <f>SUM(Tasks!I70:I72) * 10</f>
-        <v>70</v>
-      </c>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="40" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -4438,7 +4758,7 @@
         <v>137</v>
       </c>
       <c r="F23" t="s">
-        <v>140</v>
+        <v>563</v>
       </c>
       <c r="G23" s="5">
         <v>42614</v>
@@ -4447,9 +4767,11 @@
         <f>SUM(Tasks!I73:I75) * 10</f>
         <v>65</v>
       </c>
-      <c r="I23" s="14"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I23" s="40" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -4466,18 +4788,20 @@
         <v>137</v>
       </c>
       <c r="F24" t="s">
-        <v>142</v>
+        <v>564</v>
       </c>
       <c r="G24" s="5">
         <v>42430</v>
       </c>
       <c r="H24" s="6">
         <f>SUM(Tasks!I76:I78) * 10</f>
-        <v>65</v>
-      </c>
-      <c r="I24" s="14"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="40" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -4488,24 +4812,26 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
+        <v>403</v>
+      </c>
+      <c r="E25" t="s">
+        <v>404</v>
+      </c>
+      <c r="F25" t="s">
         <v>405</v>
-      </c>
-      <c r="E25" t="s">
-        <v>406</v>
-      </c>
-      <c r="F25" t="s">
-        <v>407</v>
       </c>
       <c r="G25" s="5">
         <v>42491</v>
       </c>
       <c r="H25" s="6">
         <f>SUM(Tasks!I79:I83) * 10</f>
-        <v>40</v>
-      </c>
-      <c r="I25" s="14"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I25" s="40" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
@@ -4516,10 +4842,10 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>392</v>
+        <v>567</v>
       </c>
       <c r="E26" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="F26" t="s">
         <v>88</v>
@@ -4529,11 +4855,13 @@
       </c>
       <c r="H26" s="6">
         <f>SUM(Tasks!I84:I86) * 10</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="14"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="I26" s="40" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
@@ -4544,7 +4872,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E27" t="s">
         <v>87</v>
@@ -4557,9 +4885,11 @@
       </c>
       <c r="H27" s="6">
         <f>SUM(Tasks!I87:I89) * 10</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="14"/>
+        <v>100</v>
+      </c>
+      <c r="I27" s="40" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
@@ -4572,7 +4902,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E28" t="s">
         <v>96</v>
@@ -4587,7 +4917,9 @@
         <f>SUM(Tasks!I90:I90) * 10</f>
         <v>0</v>
       </c>
-      <c r="I28" s="14"/>
+      <c r="I28" s="40" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
@@ -4600,7 +4932,7 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E29" t="s">
         <v>96</v>
@@ -4615,9 +4947,11 @@
         <f>SUM(Tasks!I91:I91) * 10</f>
         <v>0</v>
       </c>
-      <c r="I29" s="14"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I29" s="40" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -4628,13 +4962,13 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E30" t="s">
         <v>96</v>
       </c>
       <c r="F30" t="s">
-        <v>96</v>
+        <v>565</v>
       </c>
       <c r="G30" s="21">
         <v>42767</v>
@@ -4643,9 +4977,11 @@
         <f>SUM(Tasks!I92:I92) * 10</f>
         <v>0</v>
       </c>
-      <c r="I30" s="14"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I30" s="40" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3</v>
       </c>
@@ -4656,7 +4992,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E31" t="s">
         <v>96</v>
@@ -4671,9 +5007,11 @@
         <f>SUM(Tasks!I93:I93) * 10</f>
         <v>0</v>
       </c>
-      <c r="I31" s="14"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I31" s="40" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -4693,15 +5031,17 @@
         <v>102</v>
       </c>
       <c r="G32" s="21">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="H32" s="6">
         <f>SUM(Tasks!I94:I97) * 10</f>
         <v>50</v>
       </c>
-      <c r="I32" s="14"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I32" s="40" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3</v>
       </c>
@@ -4727,9 +5067,11 @@
         <f>SUM(Tasks!I98:I101) * 10</f>
         <v>50</v>
       </c>
-      <c r="I33" s="14"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I33" s="40" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -4740,7 +5082,7 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="E34" t="s">
         <v>100</v>
@@ -4753,9 +5095,11 @@
       </c>
       <c r="H34" s="6">
         <f>SUM(Tasks!I102:I104) * 10</f>
-        <v>35</v>
-      </c>
-      <c r="I34" s="14"/>
+        <v>100</v>
+      </c>
+      <c r="I34" s="40" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
@@ -4783,9 +5127,11 @@
         <f>SUM(Tasks!I105:I107) * 10</f>
         <v>35</v>
       </c>
-      <c r="I35" s="14"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I35" s="40" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3</v>
       </c>
@@ -4811,9 +5157,11 @@
         <f>SUM(Tasks!I108:I109) * 10</f>
         <v>100</v>
       </c>
-      <c r="I36" s="14"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I36" s="40" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3</v>
       </c>
@@ -4824,7 +5172,7 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="E37" t="s">
         <v>100</v>
@@ -4837,11 +5185,13 @@
       </c>
       <c r="H37" s="6">
         <f>SUM(Tasks!I110:I111) * 10</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="14"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I37" s="40" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3</v>
       </c>
@@ -4852,7 +5202,7 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="E38" t="s">
         <v>91</v>
@@ -4867,7 +5217,9 @@
         <f>SUM(Tasks!I112:I113) * 10</f>
         <v>50</v>
       </c>
-      <c r="I38" s="14"/>
+      <c r="I38" s="40" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
@@ -4880,7 +5232,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E39" t="s">
         <v>113</v>
@@ -4895,7 +5247,9 @@
         <f>SUM(Tasks!I114:I118) * 10</f>
         <v>40</v>
       </c>
-      <c r="I39" s="14"/>
+      <c r="I39" s="40" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
@@ -4908,7 +5262,7 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E40" t="s">
         <v>113</v>
@@ -4923,7 +5277,9 @@
         <f>SUM(Tasks!I119:I121) * 10</f>
         <v>70</v>
       </c>
-      <c r="I40" s="14"/>
+      <c r="I40" s="40" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
@@ -4936,7 +5292,7 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E41" t="s">
         <v>113</v>
@@ -4951,9 +5307,11 @@
         <f>SUM(Tasks!I122:I124) * 10</f>
         <v>70</v>
       </c>
-      <c r="I41" s="14"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I41" s="40" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3</v>
       </c>
@@ -4964,7 +5322,7 @@
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E42" t="s">
         <v>113</v>
@@ -4979,9 +5337,11 @@
         <f>SUM(Tasks!I125:I129) * 10</f>
         <v>80</v>
       </c>
-      <c r="I42" s="14"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I42" s="40" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>4</v>
       </c>
@@ -4991,8 +5351,8 @@
       <c r="C43">
         <v>1</v>
       </c>
-      <c r="D43" s="36" t="s">
-        <v>473</v>
+      <c r="D43" s="37" t="s">
+        <v>462</v>
       </c>
       <c r="E43" t="s">
         <v>116</v>
@@ -5004,12 +5364,14 @@
         <v>42583</v>
       </c>
       <c r="H43" s="6">
-        <f>SUM(Tasks!I130:I132) * 10</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="14"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+        <f>SUM(Tasks!I130:I131) * 10</f>
+        <v>100</v>
+      </c>
+      <c r="I43" s="40" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>4</v>
       </c>
@@ -5020,7 +5382,7 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="E44" t="s">
         <v>116</v>
@@ -5032,12 +5394,14 @@
         <v>42767</v>
       </c>
       <c r="H44" s="6">
-        <f>SUM(Tasks!I133:I135) * 10</f>
-        <v>0</v>
-      </c>
-      <c r="I44" s="14"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+        <f>SUM(Tasks!I132:I134) * 10</f>
+        <v>70</v>
+      </c>
+      <c r="I44" s="40" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4</v>
       </c>
@@ -5048,24 +5412,26 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E45" t="s">
         <v>63</v>
       </c>
       <c r="F45" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G45" s="5">
         <v>42522</v>
       </c>
       <c r="H45" s="6">
-        <f>SUM(Tasks!I136:I137) * 10</f>
-        <v>0</v>
-      </c>
-      <c r="I45" s="14"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+        <f>SUM(Tasks!I135:I136) * 10</f>
+        <v>100</v>
+      </c>
+      <c r="I45" s="40" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>4</v>
       </c>
@@ -5076,22 +5442,24 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E46" t="s">
         <v>63</v>
       </c>
       <c r="F46" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G46" s="5">
-        <v>42491</v>
+        <v>42767</v>
       </c>
       <c r="H46" s="6">
-        <f>SUM(Tasks!I138:I139) * 10</f>
-        <v>0</v>
-      </c>
-      <c r="I46" s="14"/>
+        <f>SUM(Tasks!I137:I138) * 10</f>
+        <v>50</v>
+      </c>
+      <c r="I46" s="40" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
@@ -5104,22 +5472,22 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E47" t="s">
         <v>63</v>
       </c>
       <c r="F47" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G47" s="5">
         <v>42705</v>
       </c>
       <c r="H47" s="6">
-        <f>SUM(Tasks!I140:I140) * 10</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="14"/>
+        <f>SUM(Tasks!I139:I139) * 10</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="40"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
@@ -5132,24 +5500,26 @@
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E48" t="s">
         <v>63</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="G48" s="5">
         <v>42736</v>
       </c>
       <c r="H48" s="6">
-        <f>SUM(Tasks!I141:I141) * 10</f>
-        <v>0</v>
-      </c>
-      <c r="I48" s="14"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+        <f>SUM(Tasks!I140:I140) * 10</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="40" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>4</v>
       </c>
@@ -5160,24 +5530,26 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E49" t="s">
         <v>76</v>
       </c>
       <c r="F49" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G49" s="5">
-        <v>42522</v>
+        <v>42583</v>
       </c>
       <c r="H49" s="6">
-        <f>SUM(Tasks!I142:I143) * 10</f>
-        <v>0</v>
-      </c>
-      <c r="I49" s="14"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+        <f>SUM(Tasks!I141:I142) * 10</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="40" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>4</v>
       </c>
@@ -5188,24 +5560,24 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E50" t="s">
         <v>76</v>
       </c>
       <c r="F50" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G50" s="5">
         <v>42767</v>
       </c>
       <c r="H50" s="6">
-        <f>SUM(Tasks!I144:I144) * 10</f>
-        <v>0</v>
-      </c>
-      <c r="I50" s="14"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+        <f>SUM(Tasks!I143:I143) * 10</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="40"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>4</v>
       </c>
@@ -5216,7 +5588,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E51" t="s">
         <v>116</v>
@@ -5225,12 +5597,14 @@
         <v>42522</v>
       </c>
       <c r="H51" s="6">
-        <f>SUM(Tasks!I145:I147) * 10</f>
-        <v>70</v>
-      </c>
-      <c r="I51" s="14"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+        <f>SUM(Tasks!I144:I146) * 10</f>
+        <v>100</v>
+      </c>
+      <c r="I51" s="40" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>4</v>
       </c>
@@ -5241,7 +5615,7 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E52" t="s">
         <v>32</v>
@@ -5250,68 +5624,72 @@
         <v>42430</v>
       </c>
       <c r="H52" s="6">
+        <f>SUM(Tasks!I147:I147) * 10</f>
+        <v>100</v>
+      </c>
+      <c r="I52" s="40"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>4</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>414</v>
+      </c>
+      <c r="E53" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" t="s">
+        <v>415</v>
+      </c>
+      <c r="G53" s="5">
+        <v>42583</v>
+      </c>
+      <c r="H53" s="6">
         <f>SUM(Tasks!I148:I148) * 10</f>
         <v>100</v>
       </c>
-      <c r="I52" s="14"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>4</v>
-      </c>
-      <c r="B53">
-        <v>4</v>
-      </c>
-      <c r="C53">
-        <v>3</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="I53" s="40" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>4</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
         <v>416</v>
-      </c>
-      <c r="E53" t="s">
-        <v>46</v>
-      </c>
-      <c r="F53" t="s">
-        <v>417</v>
-      </c>
-      <c r="G53" s="5">
-        <v>42583</v>
-      </c>
-      <c r="H53" s="6">
-        <f>SUM(Tasks!I149:I149) * 10</f>
-        <v>100</v>
-      </c>
-      <c r="I53" s="14"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>4</v>
-      </c>
-      <c r="B54">
-        <v>4</v>
-      </c>
-      <c r="C54">
-        <v>4</v>
-      </c>
-      <c r="D54" t="s">
-        <v>418</v>
       </c>
       <c r="E54" t="s">
         <v>116</v>
       </c>
       <c r="F54" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G54" s="5">
         <v>42583</v>
       </c>
       <c r="H54" s="6">
-        <f>SUM(Tasks!I150:I153) * 10</f>
-        <v>0</v>
-      </c>
-      <c r="I54" s="14"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+        <f>SUM(Tasks!I149:I152) * 10</f>
+        <v>0</v>
+      </c>
+      <c r="I54" s="40" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>4</v>
       </c>
@@ -5322,24 +5700,26 @@
         <v>5</v>
       </c>
       <c r="D55" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E55" t="s">
         <v>100</v>
       </c>
       <c r="F55" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="G55" s="5">
         <v>42583</v>
       </c>
       <c r="H55" s="6">
-        <f>SUM(Tasks!I154:I156) * 10</f>
-        <v>0</v>
-      </c>
-      <c r="I55" s="14"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+        <f>SUM(Tasks!I153:I155) * 10</f>
+        <v>35</v>
+      </c>
+      <c r="I55" s="40" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>4</v>
       </c>
@@ -5350,24 +5730,26 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="E56" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F56" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="G56" s="5">
         <v>42767</v>
       </c>
       <c r="H56" s="6">
-        <f>SUM(Tasks!I157:I160) * 10</f>
-        <v>0</v>
-      </c>
-      <c r="I56" s="14"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+        <f>SUM(Tasks!I156:I159) * 10</f>
+        <v>0</v>
+      </c>
+      <c r="I56" s="40" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>4</v>
       </c>
@@ -5378,24 +5760,26 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="E57" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F57" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="G57" s="5">
         <v>42583</v>
       </c>
       <c r="H57" s="6">
-        <f>SUM(Tasks!I161:I162) * 10</f>
-        <v>0</v>
-      </c>
-      <c r="I57" s="14"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+        <f>SUM(Tasks!I160:I161) * 10</f>
+        <v>0</v>
+      </c>
+      <c r="I57" s="40" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>4</v>
       </c>
@@ -5406,24 +5790,26 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="E58" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F58" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="G58" s="5">
         <v>42767</v>
       </c>
       <c r="H58" s="6">
-        <f>SUM(Tasks!I163:I164) * 10</f>
-        <v>0</v>
-      </c>
-      <c r="I58" s="14"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+        <f>SUM(Tasks!I162:I163) * 10</f>
+        <v>0</v>
+      </c>
+      <c r="I58" s="40" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>4</v>
       </c>
@@ -5434,24 +5820,26 @@
         <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="E59" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F59" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="G59" s="5">
         <v>42644</v>
       </c>
       <c r="H59" s="6">
-        <f>SUM(Tasks!I165:I167) * 10</f>
-        <v>0</v>
-      </c>
-      <c r="I59" s="14"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+        <f>SUM(Tasks!I164:I166) * 10</f>
+        <v>0</v>
+      </c>
+      <c r="I59" s="40" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>4</v>
       </c>
@@ -5462,21 +5850,26 @@
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E60" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G60" s="5">
-        <v>42522</v>
+        <v>42614</v>
       </c>
       <c r="H60" s="6">
-        <f>SUM(Tasks!I168:I168) * 10</f>
-        <v>0</v>
-      </c>
-      <c r="I60" s="14"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+        <f>SUM(Tasks!I167:I167) * 10</f>
+        <v>0</v>
+      </c>
+      <c r="I60" s="40" t="s">
+        <v>608</v>
+      </c>
+      <c r="M60" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>4</v>
       </c>
@@ -5487,22 +5880,24 @@
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E61" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F61" t="s">
-        <v>424</v>
+        <v>566</v>
       </c>
       <c r="G61" s="5">
-        <v>42522</v>
+        <v>42614</v>
       </c>
       <c r="H61" s="6">
-        <f>SUM(Tasks!I169:I169) * 10</f>
-        <v>0</v>
-      </c>
-      <c r="I61" s="14"/>
+        <f>SUM(Tasks!I168:I168) * 10</f>
+        <v>0</v>
+      </c>
+      <c r="I61" s="40" t="s">
+        <v>608</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5515,11 +5910,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K169"/>
+  <dimension ref="A1:K168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H147" sqref="H147"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5605,7 +5998,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="F3" s="16">
         <v>42430</v>
@@ -5635,7 +6028,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>425</v>
+        <v>627</v>
       </c>
       <c r="F4" s="5">
         <v>42552</v>
@@ -5644,11 +6037,11 @@
         <v>5</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -5665,10 +6058,10 @@
         <v>2</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>426</v>
+        <v>628</v>
       </c>
       <c r="F5" s="16">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="G5" s="22">
         <v>5</v>
@@ -5695,7 +6088,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F6" s="5">
         <v>42552</v>
@@ -5704,11 +6097,11 @@
         <v>5</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K6" s="22"/>
     </row>
@@ -5726,7 +6119,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F7" s="16">
         <v>42705</v>
@@ -5759,17 +6152,17 @@
         <v>378</v>
       </c>
       <c r="F8" s="5">
-        <v>42522</v>
+        <v>42551</v>
       </c>
       <c r="G8">
         <v>3.5</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="K8" s="22"/>
     </row>
@@ -5787,20 +6180,20 @@
         <v>2</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>203</v>
+        <v>621</v>
       </c>
       <c r="F9" s="16">
-        <v>42522</v>
+        <v>42551</v>
       </c>
       <c r="G9" s="22">
         <v>3.5</v>
       </c>
       <c r="H9" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="25">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -5817,7 +6210,7 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>204</v>
+        <v>618</v>
       </c>
       <c r="F10" s="5">
         <v>42552</v>
@@ -5848,7 +6241,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F11" s="16">
         <v>42461</v>
@@ -5857,11 +6250,11 @@
         <v>2.5</v>
       </c>
       <c r="H11" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="25">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -5878,20 +6271,20 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F12" s="5">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="G12">
         <v>2.5</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="K12" s="22"/>
     </row>
@@ -5939,7 +6332,7 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F14" s="5">
         <v>42767</v>
@@ -5970,7 +6363,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="F15" s="16">
         <v>42552</v>
@@ -5979,11 +6372,11 @@
         <v>5</v>
       </c>
       <c r="H15" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="25">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -6000,7 +6393,7 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="F16" s="5">
         <v>42583</v>
@@ -6065,17 +6458,17 @@
         <v>144</v>
       </c>
       <c r="F18" s="16">
-        <v>42461</v>
+        <v>42522</v>
       </c>
       <c r="G18" s="22">
         <v>3.5</v>
       </c>
       <c r="H18" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="25">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -6122,7 +6515,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="F20" s="34">
         <v>42583</v>
@@ -6152,7 +6545,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="F21" s="21">
         <v>42583</v>
@@ -6182,7 +6575,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="F22" s="34">
         <v>42583</v>
@@ -6302,7 +6695,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="F26" s="34">
         <v>42430</v>
@@ -6311,11 +6704,11 @@
         <v>2.5</v>
       </c>
       <c r="H26" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="25">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -6332,7 +6725,7 @@
         <v>4</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="F27" s="34">
         <v>42461</v>
@@ -6341,11 +6734,11 @@
         <v>2.5</v>
       </c>
       <c r="H27" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="25">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -6401,11 +6794,11 @@
         <v>3</v>
       </c>
       <c r="H29" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="22">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -6452,10 +6845,10 @@
         <v>1</v>
       </c>
       <c r="E31" s="37" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="F31" s="16">
-        <v>42461</v>
+        <v>42522</v>
       </c>
       <c r="G31" s="22">
         <v>5</v>
@@ -6482,7 +6875,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="F32" s="16">
         <v>42628</v>
@@ -6515,7 +6908,7 @@
         <v>221</v>
       </c>
       <c r="F33" s="16">
-        <v>42628</v>
+        <v>42262</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -6611,11 +7004,11 @@
         <v>2</v>
       </c>
       <c r="H36" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="22">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -6662,7 +7055,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F38" s="16">
         <v>42461</v>
@@ -6671,11 +7064,11 @@
         <v>2.5</v>
       </c>
       <c r="H38" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="25">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -6692,7 +7085,7 @@
         <v>2</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>467</v>
+        <v>538</v>
       </c>
       <c r="F39" s="16">
         <v>42491</v>
@@ -6701,11 +7094,11 @@
         <v>2.5</v>
       </c>
       <c r="H39" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="25">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -6722,10 +7115,10 @@
         <v>3</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="F40" s="16">
-        <v>42505</v>
+        <v>42551</v>
       </c>
       <c r="G40" s="22">
         <v>2.5</v>
@@ -6752,7 +7145,7 @@
         <v>4</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="F41" s="16">
         <v>42767</v>
@@ -6851,11 +7244,11 @@
         <v>2.5</v>
       </c>
       <c r="H44" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" s="25">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -6875,7 +7268,7 @@
         <v>166</v>
       </c>
       <c r="F45" s="34">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="G45" s="22">
         <v>2.5</v>
@@ -6902,20 +7295,20 @@
         <v>1</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="F46" s="34">
-        <v>42461</v>
+        <v>42522</v>
       </c>
       <c r="G46" s="22">
         <v>3.5</v>
       </c>
       <c r="H46" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="25">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -6932,10 +7325,10 @@
         <v>2</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>433</v>
+        <v>593</v>
       </c>
       <c r="F47" s="34">
-        <v>42491</v>
+        <v>42613</v>
       </c>
       <c r="G47" s="22">
         <v>3.5</v>
@@ -6962,10 +7355,10 @@
         <v>3</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="F48" s="34">
-        <v>42522</v>
+        <v>42643</v>
       </c>
       <c r="G48" s="22">
         <v>3</v>
@@ -6992,7 +7385,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>435</v>
+        <v>548</v>
       </c>
       <c r="F49" s="16">
         <v>42444</v>
@@ -7001,11 +7394,11 @@
         <v>2</v>
       </c>
       <c r="H49" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" s="22">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7022,10 +7415,10 @@
         <v>2</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>436</v>
+        <v>549</v>
       </c>
       <c r="F50" s="16">
-        <v>42459</v>
+        <v>42583</v>
       </c>
       <c r="G50" s="22">
         <v>2</v>
@@ -7052,10 +7445,10 @@
         <v>3</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>437</v>
+        <v>603</v>
       </c>
       <c r="F51" s="16">
-        <v>42475</v>
+        <v>42590</v>
       </c>
       <c r="G51" s="22">
         <v>2</v>
@@ -7082,10 +7475,10 @@
         <v>4</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="F52" s="16">
-        <v>42536</v>
+        <v>42705</v>
       </c>
       <c r="G52" s="22">
         <v>2</v>
@@ -7112,10 +7505,10 @@
         <v>5</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="F53" s="16">
-        <v>42583</v>
+        <v>42765</v>
       </c>
       <c r="G53" s="22">
         <v>2</v>
@@ -7142,7 +7535,7 @@
         <v>1</v>
       </c>
       <c r="E54" s="37" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="F54" s="16">
         <v>42491</v>
@@ -7151,11 +7544,11 @@
         <v>2.5</v>
       </c>
       <c r="H54" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" s="25">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7172,7 +7565,7 @@
         <v>2</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="F55" s="16">
         <v>42522</v>
@@ -7181,11 +7574,11 @@
         <v>2.5</v>
       </c>
       <c r="H55" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="25">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7202,7 +7595,7 @@
         <v>3</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="F56" s="16">
         <v>42552</v>
@@ -7232,7 +7625,7 @@
         <v>4</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="F57" s="16">
         <v>42583</v>
@@ -7262,20 +7655,20 @@
         <v>1</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="F58" s="16">
-        <v>42461</v>
+        <v>42522</v>
       </c>
       <c r="G58" s="22">
         <v>2.5</v>
       </c>
       <c r="H58" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" s="25">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7292,10 +7685,10 @@
         <v>2</v>
       </c>
       <c r="E59" s="22" t="s">
-        <v>477</v>
+        <v>595</v>
       </c>
       <c r="F59" s="16">
-        <v>42491</v>
+        <v>42552</v>
       </c>
       <c r="G59" s="22">
         <v>2.5</v>
@@ -7322,10 +7715,10 @@
         <v>3</v>
       </c>
       <c r="E60" s="22" t="s">
-        <v>478</v>
+        <v>594</v>
       </c>
       <c r="F60" s="16">
-        <v>42522</v>
+        <v>42583</v>
       </c>
       <c r="G60" s="22">
         <v>2.5</v>
@@ -7352,10 +7745,10 @@
         <v>4</v>
       </c>
       <c r="E61" s="22" t="s">
-        <v>479</v>
+        <v>596</v>
       </c>
       <c r="F61" s="34">
-        <v>42705</v>
+        <v>42583</v>
       </c>
       <c r="G61" s="22">
         <v>2.5</v>
@@ -7382,20 +7775,20 @@
         <v>1</v>
       </c>
       <c r="E62" s="37" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="F62" s="34">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="G62" s="22">
         <v>3</v>
       </c>
       <c r="H62" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" s="22">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7412,20 +7805,20 @@
         <v>2</v>
       </c>
       <c r="E63" s="37" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="F63" s="34">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="G63" s="22">
         <v>3.5</v>
       </c>
       <c r="H63" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" s="25">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7442,7 +7835,7 @@
         <v>3</v>
       </c>
       <c r="E64" s="37" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="F64" s="34">
         <v>42583</v>
@@ -7562,10 +7955,10 @@
         <v>4</v>
       </c>
       <c r="E68" t="s">
-        <v>188</v>
+        <v>589</v>
       </c>
       <c r="F68" s="5">
-        <v>42491</v>
+        <v>42583</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -7592,7 +7985,7 @@
         <v>5</v>
       </c>
       <c r="E69" s="22" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="F69" s="16">
         <v>42583</v>
@@ -7691,11 +8084,11 @@
         <v>3</v>
       </c>
       <c r="H72" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" s="25">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
@@ -7775,7 +8168,7 @@
         <v>192</v>
       </c>
       <c r="F75" s="16">
-        <v>42461</v>
+        <v>42583</v>
       </c>
       <c r="G75" s="22">
         <v>3.5</v>
@@ -7871,11 +8264,11 @@
         <v>3.5</v>
       </c>
       <c r="H78" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" s="25">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="79" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7892,7 +8285,7 @@
         <v>1</v>
       </c>
       <c r="E79" s="29" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="F79" s="16">
         <v>42444</v>
@@ -7922,7 +8315,7 @@
         <v>2</v>
       </c>
       <c r="E80" s="28" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="F80" s="16">
         <v>42460</v>
@@ -7952,7 +8345,7 @@
         <v>3</v>
       </c>
       <c r="E81" s="29" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="F81" s="16">
         <v>42465</v>
@@ -7961,11 +8354,11 @@
         <v>2</v>
       </c>
       <c r="H81" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" s="25">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7982,20 +8375,20 @@
         <v>4</v>
       </c>
       <c r="E82" s="28" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F82" s="16">
-        <v>42475</v>
+        <v>42491</v>
       </c>
       <c r="G82" s="22">
         <v>2</v>
       </c>
       <c r="H82" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" s="25">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -8012,20 +8405,20 @@
         <v>5</v>
       </c>
       <c r="E83" s="28" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="F83" s="5">
-        <v>42491</v>
+        <v>42521</v>
       </c>
       <c r="G83">
         <v>2</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -8042,20 +8435,20 @@
         <v>1</v>
       </c>
       <c r="E84" s="22" t="s">
-        <v>484</v>
+        <v>620</v>
       </c>
       <c r="F84" s="16">
-        <v>42430</v>
+        <v>42552</v>
       </c>
       <c r="G84" s="22">
         <v>3.5</v>
       </c>
       <c r="H84" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" s="25">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="85" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -8072,10 +8465,10 @@
         <v>2</v>
       </c>
       <c r="E85" s="22" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="F85" s="16">
-        <v>42491</v>
+        <v>42552</v>
       </c>
       <c r="G85" s="22">
         <v>3.5</v>
@@ -8102,10 +8495,10 @@
         <v>3</v>
       </c>
       <c r="E86" s="22" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="F86" s="16">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="G86" s="22">
         <v>3</v>
@@ -8132,7 +8525,7 @@
         <v>1</v>
       </c>
       <c r="E87" s="22" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F87" s="16">
         <v>42583</v>
@@ -8141,11 +8534,11 @@
         <v>5</v>
       </c>
       <c r="H87" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" s="25">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -8162,7 +8555,7 @@
         <v>2</v>
       </c>
       <c r="E88" s="22" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="F88" s="16">
         <v>42583</v>
@@ -8171,11 +8564,11 @@
         <v>5</v>
       </c>
       <c r="H88" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" s="25">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -8192,7 +8585,7 @@
         <v>3</v>
       </c>
       <c r="E89" s="22" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="F89" s="16">
         <v>42767</v>
@@ -8222,10 +8615,10 @@
         <v>1</v>
       </c>
       <c r="E90" s="35" t="s">
-        <v>552</v>
+        <v>605</v>
       </c>
       <c r="F90" s="16">
-        <v>42475</v>
+        <v>42612</v>
       </c>
       <c r="G90" s="22">
         <v>10</v>
@@ -8252,7 +8645,7 @@
         <v>1</v>
       </c>
       <c r="E91" s="22" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="F91" s="16">
         <v>42583</v>
@@ -8282,10 +8675,10 @@
         <v>1</v>
       </c>
       <c r="E92" s="35" t="s">
-        <v>552</v>
+        <v>605</v>
       </c>
       <c r="F92" s="16">
-        <v>42475</v>
+        <v>42612</v>
       </c>
       <c r="G92" s="22">
         <v>10</v>
@@ -8312,7 +8705,7 @@
         <v>1</v>
       </c>
       <c r="E93" s="22" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="F93" s="16">
         <v>42583</v>
@@ -8342,20 +8735,20 @@
         <v>1</v>
       </c>
       <c r="E94" s="22" t="s">
-        <v>245</v>
+        <v>539</v>
       </c>
       <c r="F94" s="34">
-        <v>42461</v>
+        <v>42384</v>
       </c>
       <c r="G94" s="22">
         <v>2.5</v>
       </c>
       <c r="H94" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" s="25">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="95" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -8381,11 +8774,11 @@
         <v>2.5</v>
       </c>
       <c r="H95" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" s="25">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="96" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -8402,20 +8795,20 @@
         <v>3</v>
       </c>
       <c r="E96" s="22" t="s">
-        <v>247</v>
+        <v>540</v>
       </c>
       <c r="F96" s="34">
-        <v>42384</v>
+        <v>42522</v>
       </c>
       <c r="G96" s="22">
         <v>2.5</v>
       </c>
       <c r="H96" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" s="25">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -8435,17 +8828,17 @@
         <v>248</v>
       </c>
       <c r="F97" s="34">
-        <v>42428</v>
+        <v>42522</v>
       </c>
       <c r="G97" s="22">
         <v>2.5</v>
       </c>
       <c r="H97" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" s="25">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -8615,17 +9008,17 @@
         <v>267</v>
       </c>
       <c r="F103" s="34">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="G103" s="22">
         <v>3.5</v>
       </c>
       <c r="H103" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" s="25">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -8651,11 +9044,11 @@
         <v>3</v>
       </c>
       <c r="H104" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" s="25">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -8672,7 +9065,7 @@
         <v>1</v>
       </c>
       <c r="E105" s="22" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="F105" s="34">
         <v>42368</v>
@@ -8705,7 +9098,7 @@
         <v>257</v>
       </c>
       <c r="F106" s="34">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="G106" s="22">
         <v>3.5</v>
@@ -8735,7 +9128,7 @@
         <v>258</v>
       </c>
       <c r="F107" s="34">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="G107" s="22">
         <v>3</v>
@@ -8822,7 +9215,7 @@
         <v>1</v>
       </c>
       <c r="E110" s="22" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="F110" s="34">
         <v>42459</v>
@@ -8831,11 +9224,11 @@
         <v>5</v>
       </c>
       <c r="H110" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" s="25">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -8852,7 +9245,7 @@
         <v>2</v>
       </c>
       <c r="E111" s="22" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="F111" s="34">
         <v>42461</v>
@@ -8861,11 +9254,11 @@
         <v>5</v>
       </c>
       <c r="H111" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" s="25">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -8882,10 +9275,10 @@
         <v>1</v>
       </c>
       <c r="E112" s="22" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="F112" s="34">
-        <v>42491</v>
+        <v>42583</v>
       </c>
       <c r="G112" s="22">
         <v>5</v>
@@ -8912,7 +9305,7 @@
         <v>2</v>
       </c>
       <c r="E113" s="22" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="F113" s="34">
         <v>42583</v>
@@ -8942,7 +9335,7 @@
         <v>1</v>
       </c>
       <c r="E114" s="22" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="F114" s="16">
         <v>42430</v>
@@ -8972,7 +9365,7 @@
         <v>2</v>
       </c>
       <c r="E115" s="22" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="F115" s="16">
         <v>42614</v>
@@ -9002,7 +9395,7 @@
         <v>3</v>
       </c>
       <c r="E116" s="22" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="F116" s="16">
         <v>42614</v>
@@ -9032,7 +9425,7 @@
         <v>4</v>
       </c>
       <c r="E117" s="22" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="F117" s="16">
         <v>42461</v>
@@ -9062,7 +9455,7 @@
         <v>5</v>
       </c>
       <c r="E118" s="22" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="F118" s="16">
         <v>42675</v>
@@ -9092,7 +9485,7 @@
         <v>1</v>
       </c>
       <c r="E119" s="22" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="F119" s="16">
         <v>42430</v>
@@ -9122,7 +9515,7 @@
         <v>2</v>
       </c>
       <c r="E120" s="22" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="F120" s="16">
         <v>42430</v>
@@ -9152,7 +9545,7 @@
         <v>3</v>
       </c>
       <c r="E121" s="22" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="F121" s="16">
         <v>42705</v>
@@ -9182,7 +9575,7 @@
         <v>1</v>
       </c>
       <c r="E122" s="22" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="F122" s="16">
         <v>42430</v>
@@ -9212,7 +9605,7 @@
         <v>2</v>
       </c>
       <c r="E123" s="22" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="F123" s="16">
         <v>42430</v>
@@ -9242,7 +9635,7 @@
         <v>3</v>
       </c>
       <c r="E124" s="22" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="F124" s="16">
         <v>42705</v>
@@ -9272,7 +9665,7 @@
         <v>1</v>
       </c>
       <c r="E125" s="22" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="F125" s="16">
         <v>42430</v>
@@ -9302,7 +9695,7 @@
         <v>2</v>
       </c>
       <c r="E126" s="22" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="F126" s="16">
         <v>42430</v>
@@ -9332,7 +9725,7 @@
         <v>3</v>
       </c>
       <c r="E127" s="22" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="F127" s="16">
         <v>42430</v>
@@ -9362,7 +9755,7 @@
         <v>4</v>
       </c>
       <c r="E128" s="22" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="F128" s="16">
         <v>42461</v>
@@ -9392,7 +9785,7 @@
         <v>5</v>
       </c>
       <c r="E129" s="22" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="F129" s="16">
         <v>42705</v>
@@ -9428,14 +9821,14 @@
         <v>42522</v>
       </c>
       <c r="G130" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H130" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" s="25">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -9452,50 +9845,50 @@
         <v>2</v>
       </c>
       <c r="E131" s="22" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F131" s="34">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="G131" s="22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H131" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" s="25">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="23">
-        <v>4</v>
-      </c>
-      <c r="B132" s="24">
-        <v>1</v>
-      </c>
-      <c r="C132" s="24">
-        <v>1</v>
+      <c r="A132" s="26">
+        <v>4</v>
+      </c>
+      <c r="B132" s="27">
+        <v>1</v>
+      </c>
+      <c r="C132" s="27">
+        <v>2</v>
       </c>
       <c r="D132" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E132" s="22" t="s">
-        <v>274</v>
+        <v>478</v>
       </c>
       <c r="F132" s="34">
-        <v>42583</v>
+        <v>42461</v>
       </c>
       <c r="G132" s="22">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H132" s="22">
-        <v>0</v>
-      </c>
-      <c r="I132" s="25">
+        <v>1</v>
+      </c>
+      <c r="I132" s="22">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="133" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -9509,23 +9902,23 @@
         <v>2</v>
       </c>
       <c r="D133" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E133" s="22" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="F133" s="34">
-        <v>42461</v>
+        <v>42552</v>
       </c>
       <c r="G133" s="22">
         <v>3.5</v>
       </c>
       <c r="H133" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" s="22">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="134" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -9539,16 +9932,16 @@
         <v>2</v>
       </c>
       <c r="D134" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E134" s="22" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="F134" s="34">
-        <v>42552</v>
+        <v>42767</v>
       </c>
       <c r="G134" s="22">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H134" s="22">
         <v>0</v>
@@ -9563,89 +9956,89 @@
         <v>4</v>
       </c>
       <c r="B135" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C135" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D135" s="22">
-        <v>3</v>
-      </c>
-      <c r="E135" s="22" t="s">
-        <v>495</v>
-      </c>
-      <c r="F135" s="34">
-        <v>42767</v>
+        <v>1</v>
+      </c>
+      <c r="E135" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="F135" s="16">
+        <v>42461</v>
       </c>
       <c r="G135" s="22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H135" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" s="22">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="26">
-        <v>4</v>
-      </c>
-      <c r="B136" s="27">
-        <v>2</v>
-      </c>
-      <c r="C136" s="27">
+      <c r="A136" s="1">
+        <v>4</v>
+      </c>
+      <c r="B136" s="3">
+        <v>2</v>
+      </c>
+      <c r="C136" s="3">
         <v>1</v>
       </c>
       <c r="D136" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E136" s="37" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="F136" s="16">
-        <v>42461</v>
+        <v>42552</v>
       </c>
       <c r="G136" s="22">
         <v>5</v>
       </c>
       <c r="H136" s="22">
-        <v>0</v>
-      </c>
-      <c r="I136" s="22">
+        <v>1</v>
+      </c>
+      <c r="I136" s="25">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="1">
-        <v>4</v>
-      </c>
-      <c r="B137" s="3">
-        <v>2</v>
-      </c>
-      <c r="C137" s="3">
-        <v>1</v>
+      <c r="A137" s="26">
+        <v>4</v>
+      </c>
+      <c r="B137" s="27">
+        <v>2</v>
+      </c>
+      <c r="C137" s="27">
+        <v>2</v>
       </c>
       <c r="D137" s="22">
-        <v>2</v>
-      </c>
-      <c r="E137" s="37" t="s">
-        <v>550</v>
+        <v>1</v>
+      </c>
+      <c r="E137" s="22" t="s">
+        <v>453</v>
       </c>
       <c r="F137" s="16">
-        <v>42552</v>
+        <v>42491</v>
       </c>
       <c r="G137" s="22">
         <v>5</v>
       </c>
       <c r="H137" s="22">
-        <v>0</v>
-      </c>
-      <c r="I137" s="25">
+        <v>1</v>
+      </c>
+      <c r="I137" s="22">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -9659,13 +10052,13 @@
         <v>2</v>
       </c>
       <c r="D138" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E138" s="22" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="F138" s="16">
-        <v>42491</v>
+        <v>42767</v>
       </c>
       <c r="G138" s="22">
         <v>5</v>
@@ -9686,19 +10079,19 @@
         <v>2</v>
       </c>
       <c r="C139" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D139" s="22">
-        <v>2</v>
-      </c>
-      <c r="E139" s="22" t="s">
-        <v>463</v>
+        <v>1</v>
+      </c>
+      <c r="E139" s="37" t="s">
+        <v>535</v>
       </c>
       <c r="F139" s="16">
-        <v>42767</v>
+        <v>42705</v>
       </c>
       <c r="G139" s="22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H139" s="22">
         <v>0</v>
@@ -9716,16 +10109,16 @@
         <v>2</v>
       </c>
       <c r="C140" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D140" s="22">
         <v>1</v>
       </c>
       <c r="E140" s="37" t="s">
-        <v>551</v>
+        <v>615</v>
       </c>
       <c r="F140" s="16">
-        <v>42705</v>
+        <v>42614</v>
       </c>
       <c r="G140" s="22">
         <v>10</v>
@@ -9743,22 +10136,22 @@
         <v>4</v>
       </c>
       <c r="B141" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C141" s="27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D141" s="22">
         <v>1</v>
       </c>
-      <c r="E141" s="35" t="s">
-        <v>552</v>
+      <c r="E141" s="22" t="s">
+        <v>481</v>
       </c>
       <c r="F141" s="16">
-        <v>42475</v>
+        <v>42583</v>
       </c>
       <c r="G141" s="22">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H141" s="22">
         <v>0</v>
@@ -9779,13 +10172,13 @@
         <v>1</v>
       </c>
       <c r="D142" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E142" s="22" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="F142" s="16">
-        <v>42461</v>
+        <v>42583</v>
       </c>
       <c r="G142" s="22">
         <v>5</v>
@@ -9793,32 +10186,32 @@
       <c r="H142" s="22">
         <v>0</v>
       </c>
-      <c r="I142" s="22">
+      <c r="I142" s="25">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="26">
-        <v>4</v>
-      </c>
-      <c r="B143" s="27">
-        <v>3</v>
-      </c>
-      <c r="C143" s="27">
-        <v>1</v>
+      <c r="A143" s="1">
+        <v>4</v>
+      </c>
+      <c r="B143" s="3">
+        <v>3</v>
+      </c>
+      <c r="C143" s="3">
+        <v>2</v>
       </c>
       <c r="D143" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E143" s="22" t="s">
-        <v>497</v>
-      </c>
-      <c r="F143" s="16">
-        <v>42522</v>
-      </c>
-      <c r="G143" s="22">
-        <v>5</v>
+        <v>483</v>
+      </c>
+      <c r="F143" s="5">
+        <v>42767</v>
+      </c>
+      <c r="G143">
+        <v>10</v>
       </c>
       <c r="H143" s="22">
         <v>0</v>
@@ -9829,211 +10222,211 @@
       </c>
     </row>
     <row r="144" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="1">
-        <v>4</v>
-      </c>
-      <c r="B144" s="3">
-        <v>3</v>
-      </c>
-      <c r="C144" s="3">
-        <v>2</v>
+      <c r="A144" s="26">
+        <v>4</v>
+      </c>
+      <c r="B144" s="27">
+        <v>4</v>
+      </c>
+      <c r="C144" s="27">
+        <v>1</v>
       </c>
       <c r="D144" s="22">
         <v>1</v>
       </c>
       <c r="E144" s="22" t="s">
-        <v>498</v>
-      </c>
-      <c r="F144" s="5">
-        <v>42767</v>
-      </c>
-      <c r="G144">
-        <v>10</v>
+        <v>484</v>
+      </c>
+      <c r="F144" s="16">
+        <v>42431</v>
+      </c>
+      <c r="G144" s="22">
+        <v>3.5</v>
       </c>
       <c r="H144" s="22">
-        <v>0</v>
-      </c>
-      <c r="I144" s="25">
-        <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="26">
-        <v>4</v>
-      </c>
-      <c r="B145" s="27">
-        <v>4</v>
-      </c>
-      <c r="C145" s="27">
-        <v>1</v>
-      </c>
-      <c r="D145" s="22">
-        <v>1</v>
-      </c>
-      <c r="E145" s="22" t="s">
-        <v>499</v>
-      </c>
-      <c r="F145" s="16">
-        <v>42431</v>
-      </c>
-      <c r="G145" s="22">
-        <v>3.5</v>
-      </c>
-      <c r="H145" s="22">
-        <v>1</v>
-      </c>
-      <c r="I145" s="22">
+        <v>1</v>
+      </c>
+      <c r="I144" s="22">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A146" s="26">
-        <v>4</v>
-      </c>
-      <c r="B146" s="27">
-        <v>4</v>
-      </c>
-      <c r="C146" s="27">
-        <v>1</v>
-      </c>
-      <c r="D146">
-        <v>2</v>
-      </c>
-      <c r="E146" s="22" t="s">
-        <v>528</v>
-      </c>
-      <c r="F146" s="5">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" s="26">
+        <v>4</v>
+      </c>
+      <c r="B145" s="27">
+        <v>4</v>
+      </c>
+      <c r="C145" s="27">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>2</v>
+      </c>
+      <c r="E145" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="F145" s="5">
         <v>42450</v>
       </c>
-      <c r="G146">
+      <c r="G145">
         <v>3.5</v>
       </c>
-      <c r="H146">
-        <v>1</v>
-      </c>
-      <c r="I146" s="9">
+      <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="I145" s="9">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="26">
-        <v>4</v>
-      </c>
-      <c r="B147" s="27">
-        <v>4</v>
-      </c>
-      <c r="C147" s="27">
-        <v>1</v>
-      </c>
-      <c r="D147" s="22">
-        <v>3</v>
+    <row r="146" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="26">
+        <v>4</v>
+      </c>
+      <c r="B146" s="27">
+        <v>4</v>
+      </c>
+      <c r="C146" s="27">
+        <v>1</v>
+      </c>
+      <c r="D146" s="22">
+        <v>3</v>
+      </c>
+      <c r="E146" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="F146" s="16">
+        <v>42461</v>
+      </c>
+      <c r="G146" s="22">
+        <v>3</v>
+      </c>
+      <c r="H146" s="22">
+        <v>1</v>
+      </c>
+      <c r="I146" s="25">
+        <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>4</v>
+      </c>
+      <c r="B147" s="3">
+        <v>4</v>
+      </c>
+      <c r="C147" s="3">
+        <v>2</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
       </c>
       <c r="E147" s="22" t="s">
-        <v>500</v>
-      </c>
-      <c r="F147" s="16">
-        <v>42461</v>
-      </c>
-      <c r="G147" s="22">
-        <v>3</v>
-      </c>
-      <c r="H147" s="22">
-        <v>0</v>
-      </c>
-      <c r="I147" s="25">
-        <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A148" s="1">
-        <v>4</v>
-      </c>
-      <c r="B148" s="3">
-        <v>4</v>
-      </c>
-      <c r="C148" s="3">
-        <v>2</v>
-      </c>
-      <c r="D148">
-        <v>1</v>
-      </c>
-      <c r="E148" s="22" t="s">
-        <v>501</v>
-      </c>
-      <c r="F148" s="5">
+        <v>486</v>
+      </c>
+      <c r="F147" s="5">
         <v>42430</v>
       </c>
-      <c r="G148">
+      <c r="G147">
         <v>10</v>
       </c>
-      <c r="H148">
-        <v>1</v>
-      </c>
-      <c r="I148">
+      <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="I147">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="26">
-        <v>4</v>
-      </c>
-      <c r="B149" s="27">
-        <v>4</v>
-      </c>
-      <c r="C149" s="27">
-        <v>3</v>
-      </c>
-      <c r="D149" s="22">
-        <v>1</v>
-      </c>
-      <c r="E149" s="22" t="s">
-        <v>502</v>
-      </c>
-      <c r="F149" s="16">
+    <row r="148" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="26">
+        <v>4</v>
+      </c>
+      <c r="B148" s="27">
+        <v>4</v>
+      </c>
+      <c r="C148" s="27">
+        <v>3</v>
+      </c>
+      <c r="D148" s="22">
+        <v>1</v>
+      </c>
+      <c r="E148" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="F148" s="16">
         <v>42430</v>
       </c>
-      <c r="G149" s="22">
+      <c r="G148" s="22">
         <v>10</v>
       </c>
-      <c r="H149" s="22">
-        <v>1</v>
-      </c>
-      <c r="I149" s="22">
+      <c r="H148" s="22">
+        <v>1</v>
+      </c>
+      <c r="I148" s="22">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A150" s="1">
-        <v>4</v>
-      </c>
-      <c r="B150" s="3">
-        <v>4</v>
-      </c>
-      <c r="C150" s="3">
-        <v>4</v>
-      </c>
-      <c r="D150">
-        <v>1</v>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>4</v>
+      </c>
+      <c r="B149" s="3">
+        <v>4</v>
+      </c>
+      <c r="C149" s="3">
+        <v>4</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="F149" s="5">
+        <v>42583</v>
+      </c>
+      <c r="G149">
+        <v>2.5</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="26">
+        <v>4</v>
+      </c>
+      <c r="B150" s="27">
+        <v>4</v>
+      </c>
+      <c r="C150" s="27">
+        <v>4</v>
+      </c>
+      <c r="D150" s="22">
+        <v>2</v>
       </c>
       <c r="E150" s="22" t="s">
-        <v>503</v>
-      </c>
-      <c r="F150" s="5">
+        <v>489</v>
+      </c>
+      <c r="F150" s="16">
         <v>42583</v>
       </c>
-      <c r="G150">
+      <c r="G150" s="22">
         <v>2.5</v>
       </c>
-      <c r="H150">
-        <v>0</v>
-      </c>
-      <c r="I150">
+      <c r="H150" s="22">
+        <v>0</v>
+      </c>
+      <c r="I150" s="25">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
@@ -10049,10 +10442,10 @@
         <v>4</v>
       </c>
       <c r="D151" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E151" s="22" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="F151" s="16">
         <v>42583</v>
@@ -10079,10 +10472,10 @@
         <v>4</v>
       </c>
       <c r="D152" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E152" s="22" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="F152" s="16">
         <v>42583</v>
@@ -10106,26 +10499,26 @@
         <v>4</v>
       </c>
       <c r="C153" s="27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D153" s="22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E153" s="22" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="F153" s="16">
-        <v>42583</v>
+        <v>42461</v>
       </c>
       <c r="G153" s="22">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H153" s="22">
-        <v>0</v>
-      </c>
-      <c r="I153" s="25">
+        <v>1</v>
+      </c>
+      <c r="I153" s="22">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="154" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -10139,13 +10532,13 @@
         <v>5</v>
       </c>
       <c r="D154" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E154" s="22" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="F154" s="16">
-        <v>42461</v>
+        <v>42583</v>
       </c>
       <c r="G154" s="22">
         <v>3.5</v>
@@ -10153,32 +10546,32 @@
       <c r="H154" s="22">
         <v>0</v>
       </c>
-      <c r="I154" s="22">
+      <c r="I154" s="25">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="26">
-        <v>4</v>
-      </c>
-      <c r="B155" s="27">
-        <v>4</v>
-      </c>
-      <c r="C155" s="27">
+      <c r="A155" s="1">
+        <v>4</v>
+      </c>
+      <c r="B155" s="3">
+        <v>4</v>
+      </c>
+      <c r="C155" s="3">
         <v>5</v>
       </c>
       <c r="D155" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E155" s="22" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="F155" s="16">
         <v>42583</v>
       </c>
       <c r="G155" s="22">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H155" s="22">
         <v>0</v>
@@ -10189,50 +10582,50 @@
       </c>
     </row>
     <row r="156" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="1">
-        <v>4</v>
-      </c>
-      <c r="B156" s="3">
-        <v>4</v>
-      </c>
-      <c r="C156" s="3">
+      <c r="A156" s="26">
+        <v>4</v>
+      </c>
+      <c r="B156" s="27">
         <v>5</v>
       </c>
+      <c r="C156" s="27">
+        <v>1</v>
+      </c>
       <c r="D156" s="22">
-        <v>3</v>
-      </c>
-      <c r="E156" s="22" t="s">
-        <v>509</v>
+        <v>1</v>
+      </c>
+      <c r="E156" s="37" t="s">
+        <v>514</v>
       </c>
       <c r="F156" s="16">
         <v>42583</v>
       </c>
       <c r="G156" s="22">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H156" s="22">
         <v>0</v>
       </c>
-      <c r="I156" s="25">
+      <c r="I156" s="22">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="26">
-        <v>4</v>
-      </c>
-      <c r="B157" s="27">
+      <c r="A157" s="1">
+        <v>4</v>
+      </c>
+      <c r="B157" s="3">
         <v>5</v>
       </c>
-      <c r="C157" s="27">
+      <c r="C157" s="3">
         <v>1</v>
       </c>
       <c r="D157" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E157" s="37" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="F157" s="16">
         <v>42583</v>
@@ -10243,26 +10636,26 @@
       <c r="H157" s="22">
         <v>0</v>
       </c>
-      <c r="I157" s="22">
+      <c r="I157" s="25">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="1">
-        <v>4</v>
-      </c>
-      <c r="B158" s="3">
+      <c r="A158" s="26">
+        <v>4</v>
+      </c>
+      <c r="B158" s="27">
         <v>5</v>
       </c>
-      <c r="C158" s="3">
+      <c r="C158" s="27">
         <v>1</v>
       </c>
       <c r="D158" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E158" s="37" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="F158" s="16">
         <v>42583</v>
@@ -10279,23 +10672,23 @@
       </c>
     </row>
     <row r="159" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="26">
-        <v>4</v>
-      </c>
-      <c r="B159" s="27">
+      <c r="A159" s="1">
+        <v>4</v>
+      </c>
+      <c r="B159" s="3">
         <v>5</v>
       </c>
-      <c r="C159" s="27">
+      <c r="C159" s="3">
         <v>1</v>
       </c>
       <c r="D159" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E159" s="37" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="F159" s="16">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="G159" s="22">
         <v>2.5</v>
@@ -10309,26 +10702,26 @@
       </c>
     </row>
     <row r="160" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="1">
-        <v>4</v>
-      </c>
-      <c r="B160" s="3">
+      <c r="A160" s="26">
+        <v>4</v>
+      </c>
+      <c r="B160" s="27">
         <v>5</v>
       </c>
-      <c r="C160" s="3">
-        <v>1</v>
+      <c r="C160" s="27">
+        <v>2</v>
       </c>
       <c r="D160" s="22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E160" s="37" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="F160" s="16">
-        <v>42614</v>
+        <v>42583</v>
       </c>
       <c r="G160" s="22">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="H160" s="22">
         <v>0</v>
@@ -10339,20 +10732,20 @@
       </c>
     </row>
     <row r="161" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="26">
-        <v>4</v>
-      </c>
-      <c r="B161" s="27">
+      <c r="A161" s="1">
+        <v>4</v>
+      </c>
+      <c r="B161" s="3">
         <v>5</v>
       </c>
-      <c r="C161" s="27">
+      <c r="C161" s="3">
         <v>2</v>
       </c>
       <c r="D161" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E161" s="37" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="F161" s="16">
         <v>42583</v>
@@ -10369,23 +10762,23 @@
       </c>
     </row>
     <row r="162" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="1">
-        <v>4</v>
-      </c>
-      <c r="B162" s="3">
+      <c r="A162" s="26">
+        <v>4</v>
+      </c>
+      <c r="B162" s="27">
         <v>5</v>
       </c>
-      <c r="C162" s="3">
-        <v>2</v>
+      <c r="C162" s="27">
+        <v>3</v>
       </c>
       <c r="D162" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E162" s="37" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="F162" s="16">
-        <v>42583</v>
+        <v>42644</v>
       </c>
       <c r="G162" s="22">
         <v>5</v>
@@ -10399,23 +10792,23 @@
       </c>
     </row>
     <row r="163" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="26">
-        <v>4</v>
-      </c>
-      <c r="B163" s="27">
+      <c r="A163" s="1">
+        <v>4</v>
+      </c>
+      <c r="B163" s="3">
         <v>5</v>
       </c>
-      <c r="C163" s="27">
+      <c r="C163" s="3">
         <v>3</v>
       </c>
       <c r="D163" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E163" s="37" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="F163" s="16">
-        <v>42644</v>
+        <v>42705</v>
       </c>
       <c r="G163" s="22">
         <v>5</v>
@@ -10429,26 +10822,26 @@
       </c>
     </row>
     <row r="164" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="1">
-        <v>4</v>
-      </c>
-      <c r="B164" s="3">
+      <c r="A164" s="26">
+        <v>4</v>
+      </c>
+      <c r="B164" s="27">
         <v>5</v>
       </c>
-      <c r="C164" s="3">
-        <v>3</v>
+      <c r="C164" s="27">
+        <v>4</v>
       </c>
       <c r="D164" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E164" s="37" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="F164" s="16">
-        <v>42705</v>
+        <v>42675</v>
       </c>
       <c r="G164" s="22">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="H164" s="22">
         <v>0</v>
@@ -10459,23 +10852,23 @@
       </c>
     </row>
     <row r="165" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="26">
-        <v>4</v>
-      </c>
-      <c r="B165" s="27">
+      <c r="A165" s="1">
+        <v>4</v>
+      </c>
+      <c r="B165" s="3">
         <v>5</v>
       </c>
-      <c r="C165" s="27">
+      <c r="C165" s="3">
         <v>4</v>
       </c>
       <c r="D165" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E165" s="37" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="F165" s="16">
-        <v>42675</v>
+        <v>42767</v>
       </c>
       <c r="G165" s="22">
         <v>3.5</v>
@@ -10489,26 +10882,26 @@
       </c>
     </row>
     <row r="166" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="1">
-        <v>4</v>
-      </c>
-      <c r="B166" s="3">
+      <c r="A166" s="26">
+        <v>4</v>
+      </c>
+      <c r="B166" s="27">
         <v>5</v>
       </c>
-      <c r="C166" s="3">
+      <c r="C166" s="27">
         <v>4</v>
       </c>
       <c r="D166" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E166" s="37" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="F166" s="16">
         <v>42767</v>
       </c>
       <c r="G166" s="22">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H166" s="22">
         <v>0</v>
@@ -10519,31 +10912,31 @@
       </c>
     </row>
     <row r="167" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="26">
-        <v>4</v>
-      </c>
-      <c r="B167" s="27">
-        <v>5</v>
-      </c>
-      <c r="C167" s="27">
-        <v>4</v>
-      </c>
-      <c r="D167" s="22">
-        <v>3</v>
-      </c>
-      <c r="E167" s="37" t="s">
-        <v>538</v>
+      <c r="A167" s="30">
+        <v>4</v>
+      </c>
+      <c r="B167" s="31">
+        <v>6</v>
+      </c>
+      <c r="C167" s="31">
+        <v>1</v>
+      </c>
+      <c r="D167" s="32">
+        <v>1</v>
+      </c>
+      <c r="E167" s="32" t="s">
+        <v>495</v>
       </c>
       <c r="F167" s="16">
-        <v>42767</v>
-      </c>
-      <c r="G167" s="22">
-        <v>3</v>
-      </c>
-      <c r="H167" s="22">
-        <v>0</v>
-      </c>
-      <c r="I167" s="25">
+        <v>42614</v>
+      </c>
+      <c r="G167" s="32">
+        <v>10</v>
+      </c>
+      <c r="H167" s="32">
+        <v>0</v>
+      </c>
+      <c r="I167" s="33">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
@@ -10556,16 +10949,16 @@
         <v>6</v>
       </c>
       <c r="C168" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D168" s="32">
         <v>1</v>
       </c>
       <c r="E168" s="32" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="F168" s="16">
-        <v>42461</v>
+        <v>42614</v>
       </c>
       <c r="G168" s="32">
         <v>10</v>
@@ -10574,36 +10967,6 @@
         <v>0</v>
       </c>
       <c r="I168" s="33">
-        <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="30">
-        <v>4</v>
-      </c>
-      <c r="B169" s="31">
-        <v>6</v>
-      </c>
-      <c r="C169" s="31">
-        <v>2</v>
-      </c>
-      <c r="D169" s="32">
-        <v>1</v>
-      </c>
-      <c r="E169" s="32" t="s">
-        <v>541</v>
-      </c>
-      <c r="F169" s="16">
-        <v>42461</v>
-      </c>
-      <c r="G169" s="32">
-        <v>10</v>
-      </c>
-      <c r="H169" s="32">
-        <v>0</v>
-      </c>
-      <c r="I169" s="33">
         <f>IF(Table4[[#This Row],[Complete]]&gt;0,Table4[[#This Row],[Weight]],0)</f>
         <v>0</v>
       </c>
@@ -10660,7 +11023,7 @@
       </c>
       <c r="D2" s="12">
         <f>SUM(Actions!H2:H4) / 4</f>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>303</v>
@@ -10679,7 +11042,7 @@
       </c>
       <c r="D3" s="12">
         <f>SUM(Actions!H5:H6) / 2</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>310</v>
@@ -10736,7 +11099,7 @@
       </c>
       <c r="D6" s="12">
         <f>SUM(Actions!H8:H11) / 5</f>
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>314</v>
@@ -10755,7 +11118,7 @@
       </c>
       <c r="D7" s="12">
         <f>SUM(Actions!H12:H18) / 8</f>
-        <v>20.625</v>
+        <v>44.375</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>315</v>
@@ -10774,7 +11137,7 @@
       </c>
       <c r="D8" s="12">
         <f>SUM(Actions!H19:H21) / 4</f>
-        <v>15</v>
+        <v>37.5</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>304</v>
@@ -10793,7 +11156,7 @@
       </c>
       <c r="D9" s="12">
         <f>SUM(Actions!H22:H24) / 3</f>
-        <v>66.666666666666671</v>
+        <v>88.333333333333329</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>305</v>
@@ -10812,7 +11175,7 @@
       </c>
       <c r="D10" s="12">
         <f>SUM(Actions!H26:H27) / 3</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>316</v>
@@ -10850,7 +11213,7 @@
       </c>
       <c r="D12" s="12">
         <f>SUM(Actions!H32:H35) / 5</f>
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>318</v>
@@ -10869,7 +11232,7 @@
       </c>
       <c r="D13" s="12">
         <f>SUM(Actions!H36:H38) / 5</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>306</v>
@@ -10907,7 +11270,7 @@
       </c>
       <c r="D15" s="12">
         <f>SUM(Actions!H43:H44) / 2</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>319</v>
@@ -10926,7 +11289,7 @@
       </c>
       <c r="D16" s="12">
         <f>SUM(Actions!H45:H46) / 2</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>308</v>
@@ -10964,7 +11327,7 @@
       </c>
       <c r="D18" s="12">
         <f>SUM(Actions!H51:H52)/2</f>
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>309</v>
@@ -11100,7 +11463,7 @@
       </c>
       <c r="H3" s="6">
         <f>SUM(Tasks!I4:I5) * 10</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>322</v>
@@ -11130,7 +11493,7 @@
       </c>
       <c r="H4" s="6">
         <f>SUM(Tasks!I6:I7) * 10</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>323</v>
@@ -11190,7 +11553,7 @@
       </c>
       <c r="H6" s="6">
         <f>SUM(Tasks!I8:I10) * 10</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>325</v>
@@ -11220,7 +11583,7 @@
       </c>
       <c r="H7" s="6">
         <f>SUM(Tasks!I11:I14) * 10</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I7" s="14" t="s">
         <v>326</v>
@@ -11392,7 +11755,7 @@
       </c>
       <c r="H13" s="6">
         <f>SUM(Tasks!I17:I19) * 10</f>
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>331</v>
@@ -11479,7 +11842,7 @@
       </c>
       <c r="H16" s="6">
         <f>SUM(Tasks!I24:I27) * 10</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I16" s="14" t="s">
         <v>333</v>
@@ -11509,7 +11872,7 @@
       </c>
       <c r="H17" s="6">
         <f>SUM(Tasks!I28:I30) * 10</f>
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="I17" s="14" t="s">
         <v>334</v>
@@ -11596,7 +11959,7 @@
       </c>
       <c r="H20" s="6">
         <f>SUM(Tasks!I36:I36) * 10</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I20" s="14" t="s">
         <v>336</v>
@@ -11626,7 +11989,7 @@
       </c>
       <c r="H21" s="6">
         <f>SUM(Tasks!I37:I41) * 10</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I21" s="14" t="s">
         <v>337</v>
@@ -11656,7 +12019,7 @@
       </c>
       <c r="H22" s="6">
         <f>SUM(Tasks!I42:I44) * 10</f>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I22" s="14" t="s">
         <v>338</v>
@@ -11686,7 +12049,7 @@
       </c>
       <c r="H23" s="6">
         <f>SUM(Tasks!I45:I48) * 10</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I23" s="14" t="s">
         <v>339</v>
@@ -11716,7 +12079,7 @@
       </c>
       <c r="H24" s="6">
         <f>SUM(Tasks!I49:I51) * 10</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I24" s="14" t="s">
         <v>340</v>
@@ -11746,7 +12109,7 @@
       </c>
       <c r="H25" s="6">
         <f>SUM(Tasks!I52:I57) * 10</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I25" s="14" t="s">
         <v>341</v>
@@ -11806,7 +12169,7 @@
       </c>
       <c r="H27" s="6">
         <f>SUM(Tasks!I62:I64) * 10</f>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="I27" s="14" t="s">
         <v>343</v>
@@ -11896,7 +12259,7 @@
       </c>
       <c r="H30" s="6">
         <f>SUM(Tasks!I70:I72) * 10</f>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="I30" s="14" t="s">
         <v>346</v>
@@ -11956,7 +12319,7 @@
       </c>
       <c r="H32" s="6">
         <f>SUM(Tasks!I76:I78) * 10</f>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="I32" s="14" t="s">
         <v>348</v>
@@ -11986,7 +12349,7 @@
       </c>
       <c r="H33" s="6">
         <f>SUM(Tasks!I79:I81) * 10</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I33" s="14" t="s">
         <v>349</v>
@@ -12016,7 +12379,7 @@
       </c>
       <c r="H34" s="6">
         <f>SUM(Tasks!I83:I85) * 10</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I34" s="14" t="s">
         <v>350</v>
@@ -12046,7 +12409,7 @@
       </c>
       <c r="H35" s="6">
         <f>SUM(Tasks!I86:I89) * 10</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I35" s="14" t="s">
         <v>352</v>
@@ -12187,7 +12550,7 @@
       </c>
       <c r="H40" s="6">
         <f>SUM(Tasks!I94:I95) * 10</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I40" s="14" t="s">
         <v>357</v>
@@ -12217,7 +12580,7 @@
       </c>
       <c r="H41" s="6">
         <f>SUM(Tasks!I96:I97) * 10</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I41" s="14" t="s">
         <v>358</v>
@@ -12246,8 +12609,8 @@
         <v>42401</v>
       </c>
       <c r="H42" s="6">
-        <f>SUM(Tasks!I138:I140) * 10</f>
-        <v>0</v>
+        <f>SUM(Tasks!I137:I139) * 10</f>
+        <v>50</v>
       </c>
       <c r="I42" s="14" t="s">
         <v>359</v>
@@ -12276,7 +12639,7 @@
         <v>42401</v>
       </c>
       <c r="H43" s="6">
-        <f>SUM(Tasks!I139:I141) * 10</f>
+        <f>SUM(Tasks!I138:I140) * 10</f>
         <v>0</v>
       </c>
       <c r="I43" s="14" t="s">
@@ -12306,7 +12669,7 @@
         <v>42401</v>
       </c>
       <c r="H44" s="6">
-        <f>SUM(Tasks!I140:I142) * 10</f>
+        <f>SUM(Tasks!I139:I141) * 10</f>
         <v>0</v>
       </c>
       <c r="I44" s="14" t="s">
@@ -12333,7 +12696,7 @@
         <v>42401</v>
       </c>
       <c r="H45" s="6">
-        <f>SUM(Tasks!I141:I145) * 10</f>
+        <f>SUM(Tasks!I140:I144) * 10</f>
         <v>35</v>
       </c>
       <c r="I45" s="14" t="s">
@@ -12363,8 +12726,8 @@
         <v>42248</v>
       </c>
       <c r="H46" s="6">
-        <f>SUM(Tasks!I142:I147) * 10</f>
-        <v>70</v>
+        <f>SUM(Tasks!I141:I146) * 10</f>
+        <v>100</v>
       </c>
       <c r="I46" s="14" t="s">
         <v>363</v>
@@ -12393,8 +12756,8 @@
         <v>42401</v>
       </c>
       <c r="H47" s="6">
-        <f>SUM(Tasks!I145:I148) * 10</f>
-        <v>170</v>
+        <f>SUM(Tasks!I144:I147) * 10</f>
+        <v>200</v>
       </c>
       <c r="I47" s="14" t="s">
         <v>364</v>
@@ -12423,7 +12786,7 @@
         <v>42401</v>
       </c>
       <c r="H48" s="6">
-        <f>SUM(Tasks!I148:I149) * 10</f>
+        <f>SUM(Tasks!I147:I148) * 10</f>
         <v>200</v>
       </c>
       <c r="I48" s="14" t="s">
@@ -12450,7 +12813,7 @@
         <v>42401</v>
       </c>
       <c r="H49" s="6">
-        <f>SUM(Tasks!I148:I150) * 10</f>
+        <f>SUM(Tasks!I147:I149) * 10</f>
         <v>200</v>
       </c>
       <c r="I49" s="14" t="s">
@@ -12510,8 +12873,8 @@
         <v>85</v>
       </c>
       <c r="H51" s="6">
-        <f>SUM(Tasks!I130:I132) * 10</f>
-        <v>0</v>
+        <f>SUM(Tasks!I130:I131) * 10</f>
+        <v>100</v>
       </c>
       <c r="I51" s="14" t="s">
         <v>377</v>
@@ -12540,8 +12903,8 @@
         <v>120</v>
       </c>
       <c r="H52" s="6">
-        <f>SUM(Tasks!I133:I135) * 10</f>
-        <v>0</v>
+        <f>SUM(Tasks!I132:I134) * 10</f>
+        <v>70</v>
       </c>
       <c r="I52" s="14" t="s">
         <v>367</v>
@@ -12570,8 +12933,8 @@
         <v>42262</v>
       </c>
       <c r="H53" s="6">
-        <f>SUM(Tasks!I136:I136) * 10</f>
-        <v>0</v>
+        <f>SUM(Tasks!I135:I135) * 10</f>
+        <v>50</v>
       </c>
       <c r="I53" s="14" t="s">
         <v>301</v>
@@ -12600,8 +12963,8 @@
         <v>85</v>
       </c>
       <c r="H54" s="6">
-        <f>SUM(Tasks!I138:I140) * 10</f>
-        <v>0</v>
+        <f>SUM(Tasks!I137:I139) * 10</f>
+        <v>50</v>
       </c>
       <c r="I54" s="14" t="s">
         <v>368</v>
@@ -12630,8 +12993,8 @@
         <v>42401</v>
       </c>
       <c r="H55" s="6">
-        <f>SUM(Tasks!I141:I147) * 10</f>
-        <v>70</v>
+        <f>SUM(Tasks!I140:I146) * 10</f>
+        <v>100</v>
       </c>
       <c r="I55" s="14" t="s">
         <v>369</v>
@@ -12660,7 +13023,7 @@
         <v>42401</v>
       </c>
       <c r="H56" s="6">
-        <f>SUM(Tasks!I148:I150) * 10</f>
+        <f>SUM(Tasks!I147:I149) * 10</f>
         <v>200</v>
       </c>
       <c r="I56" s="14" t="s">
@@ -12690,8 +13053,8 @@
         <v>42401</v>
       </c>
       <c r="H57" s="6">
-        <f>SUM(Tasks!I154:I157) * 10</f>
-        <v>0</v>
+        <f>SUM(Tasks!I153:I156) * 10</f>
+        <v>35</v>
       </c>
       <c r="I57" s="14" t="s">
         <v>371</v>
